--- a/doc/方法接口参数_20180901.xlsx
+++ b/doc/方法接口参数_20180901.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户角色" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="462">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t>String afterSaleProviderPhone;</t>
-  </si>
-  <si>
-    <t>String afterSaleProviderDesc;</t>
   </si>
   <si>
     <t>Integer contractId;</t>
@@ -3102,12 +3099,100 @@
     <t>保养文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>String afterSaleProviderDesc;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer contractId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String setupCaseId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装工单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer needInspection            </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否巡检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer inspectionInterval            </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡检间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String nextInspectionDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次巡检时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer needMaintain            </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保养</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer maintenanceInterval            </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保养间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次保养时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String nextMaintenanceDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer needMetering            </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否计量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer meteringInterval         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String nextMeteringDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次计量时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3278,6 +3363,14 @@
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF660033"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3482,7 +3575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3579,12 +3672,23 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF660033"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -3908,7 +4012,7 @@
     </row>
     <row r="2" spans="1:6" ht="221.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -3917,10 +4021,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
@@ -3928,10 +4032,10 @@
     </row>
     <row r="3" spans="1:6" ht="82.5" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>12</v>
@@ -3948,19 +4052,19 @@
     </row>
     <row r="4" spans="1:6" ht="82.5" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>284</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>8</v>
@@ -3968,19 +4072,19 @@
     </row>
     <row r="5" spans="1:6" ht="82.5" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>8</v>
@@ -3988,19 +4092,19 @@
     </row>
     <row r="6" spans="1:6" ht="124.5" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>8</v>
@@ -4008,19 +4112,19 @@
     </row>
     <row r="7" spans="1:6" ht="124.5" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>8</v>
@@ -4028,19 +4132,19 @@
     </row>
     <row r="8" spans="1:6" ht="135">
       <c r="A8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>8</v>
@@ -4048,19 +4152,19 @@
     </row>
     <row r="9" spans="1:6" ht="135">
       <c r="A9" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>8</v>
@@ -4068,19 +4172,19 @@
     </row>
     <row r="10" spans="1:6" ht="121.5">
       <c r="A10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>8</v>
@@ -4091,7 +4195,7 @@
       <c r="B11" s="24"/>
       <c r="C11" s="6"/>
       <c r="D11" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -4114,57 +4218,57 @@
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -4217,102 +4321,102 @@
     </row>
     <row r="2" spans="1:6" ht="94.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>407</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="127.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="259.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="D4" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="185.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>374</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="148.5">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4325,104 +4429,104 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5">
       <c r="A10" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="54" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1">
       <c r="A12" s="21"/>
       <c r="C12" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1">
       <c r="A13" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" t="s">
         <v>379</v>
       </c>
-      <c r="B13" t="s">
-        <v>380</v>
-      </c>
       <c r="C13" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B14" t="s">
         <v>398</v>
       </c>
-      <c r="B14" t="s">
-        <v>399</v>
-      </c>
       <c r="C14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -4432,27 +4536,27 @@
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -4463,7 +4567,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="3:4">
@@ -4471,7 +4575,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4519,99 +4623,99 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>308</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>315</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="148.5">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="210.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -4625,67 +4729,67 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5">
       <c r="A10" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="52.5" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="54" customHeight="1">
       <c r="A12" s="21"/>
       <c r="C12" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.25" customHeight="1">
       <c r="A13" s="21"/>
       <c r="C13" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="3:3">
@@ -4695,7 +4799,7 @@
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -4705,27 +4809,27 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="3:3">
@@ -4745,42 +4849,42 @@
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="3:4">
       <c r="C34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="C36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="3:4">
       <c r="C38" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="3:4">
@@ -4790,15 +4894,15 @@
     </row>
     <row r="40" spans="3:4">
       <c r="C40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="D41" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4843,137 +4947,137 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="148.5">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="185.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="86.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="86.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -4987,154 +5091,154 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="38.25">
       <c r="A12" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="52.5" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="54" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="52.5" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="59.25" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>236</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>240</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>238</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="3:4">
       <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="34" spans="3:4">
@@ -5142,7 +5246,7 @@
         <v>15</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5164,20 +5268,20 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" t="s">
         <v>231</v>
-      </c>
-      <c r="C4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5189,16 +5293,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="39.875" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
     <col min="5" max="5" width="46.625" customWidth="1"/>
     <col min="6" max="6" width="32.875" customWidth="1"/>
@@ -5221,102 +5325,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5350,18 +5454,18 @@
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5416,7 +5520,7 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5456,7 +5560,7 @@
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="3:3">
@@ -5491,7 +5595,7 @@
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -5566,28 +5670,116 @@
     </row>
     <row r="55" spans="3:4">
       <c r="C55" t="s">
-        <v>53</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="3:4">
       <c r="C56" t="s">
-        <v>54</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="3:4">
-      <c r="C57" t="s">
+      <c r="C57" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="32"/>
+      <c r="D67" s="33"/>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="32"/>
+      <c r="D68" s="33"/>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="15" t="s">
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="15" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4">
-      <c r="C58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5631,102 +5823,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5755,35 +5947,35 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -5798,12 +5990,12 @@
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="3:4">
@@ -5811,7 +6003,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -5819,7 +6011,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5863,20 +6055,20 @@
     </row>
     <row r="2" spans="1:6" ht="221.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5913,67 +6105,67 @@
     </row>
     <row r="8" spans="1:6">
       <c r="C8" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6017,102 +6209,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6141,30 +6333,30 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6179,17 +6371,17 @@
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -6199,10 +6391,10 @@
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="3:4">
@@ -6210,7 +6402,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -6254,102 +6446,102 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="185.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6378,43 +6570,43 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -6422,7 +6614,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -6466,122 +6658,122 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="259.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="259.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="185.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="E5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="94.5">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81">
       <c r="A7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6610,7 +6802,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6619,90 +6811,90 @@
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="32" spans="3:4">
@@ -6710,7 +6902,7 @@
         <v>15</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -6758,79 +6950,79 @@
     </row>
     <row r="2" spans="1:6" ht="259.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="D2" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="185.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="148.5">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="86.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>360</v>
-      </c>
       <c r="D5" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -6845,60 +7037,60 @@
     <row r="8" spans="1:6">
       <c r="A8" s="19"/>
       <c r="C8" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="20"/>
       <c r="C9" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="52.5" customHeight="1">
       <c r="A10" s="21"/>
       <c r="B10" s="29"/>
       <c r="C10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1">
       <c r="A11" s="21"/>
       <c r="C11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -6908,37 +7100,37 @@
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="3:4">
@@ -6949,7 +7141,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="3:4">
@@ -6957,7 +7149,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -6974,8 +7166,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7005,82 +7197,82 @@
     </row>
     <row r="2" spans="1:6" ht="94.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>421</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="127.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="259.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>430</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="148.5">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7093,97 +7285,97 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5">
       <c r="A9" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="54" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1">
       <c r="A11" s="21"/>
       <c r="C11" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27" customHeight="1">
       <c r="A12" s="21"/>
       <c r="C12" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="21"/>
       <c r="C13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21"/>
       <c r="C14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="21"/>
       <c r="C15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>439</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="3:4">
@@ -7191,7 +7383,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="3:4">
@@ -7199,7 +7391,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
